--- a/114 - 自定义构造3 - UniqueTileEffects - 独特的地砖效果.xlsx
+++ b/114 - 自定义构造3 - UniqueTileEffects - 独特的地砖效果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="344">
   <si>
     <t>介绍</t>
   </si>
@@ -523,6 +523,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>智能冲刺</t>
     </r>
     <r>
@@ -592,6 +599,33 @@
   </si>
   <si>
     <t>在独特的瓷砖（如光滑的瓷砖）上也不能拉动物体，并强制移动瓷砖。</t>
+  </si>
+  <si>
+    <t>警告！RPG Maker MZ 1.5.0+ 版本水砖漏洞！</t>
+  </si>
+  <si>
+    <t>在 RPG Maker MZ 1.5.0 及以上版本和 1.6.0 及以上版本中，从零开始创建图块集似乎会出现一个新的 bug！
+这个 bug 会导致许多图块意外变成水图块。
+您可以通过关闭项目中的所有插件，将一艘船或小船放在原本是地面图块的位置，然后观察船或小船穿过这些图块来发现这个问题。</t>
+  </si>
+  <si>
+    <t>这自然会导致 Unique Tile Effects 插件出现问题，因为水图块允许游泳和溺水。</t>
+  </si>
+  <si>
+    <t>有两种方法可以解决这个问题。
+我们无法通过此插件中的代码来修复它，因为这个问题涉及到图块集 json 数据。
+有一些方法可以解决这个问题，以便您可以获得正确的水面标志，使其位于正确的位置。</t>
+  </si>
+  <si>
+    <t>将一个可以正常工作且未出现问题的图块集复制到当前出现问题的图块集上，并重新应用图块特性，例如通行性、地形标签等。这将确保水体通行性图块能够正确复制。</t>
+  </si>
+  <si>
+    <t>如果您使用的是 RPG Maker MZ 1.5.0 或更高版本，请选择一个可以正常工作且未出现问题的图块集（通常是新建项目时使用的现有图块集），点击“复制页面”按钮，转到出现问题的图块集并点击“粘贴页面”。
+您需要重新应用其他属性，例如通行性和地形标签，但现在水体图块标签应该可以正常工作了。</t>
+  </si>
+  <si>
+    <t>从 1.9.0 及更高版本开始，这两种方法不再适用于修复该问题。
+新增了一个插件参数来禁用错误消息。但是，这并不意味着图块集标签数据已修复。您可以根据需要关闭错误消息。</t>
   </si>
   <si>
     <t>Bounce Tile-Related Notetags  弹跳地砖</t>
@@ -1727,6 +1761,24 @@
     </r>
   </si>
   <si>
+    <t>Reserve Party Notetags?</t>
+  </si>
+  <si>
+    <t>预备队伍标签？
+豁免标签是应该检查所有队员（包括预备队员）还是仅检查战斗队员？
+true：允许全部队员    false：仅限战斗队员</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Enable Error Message?</t>
+  </si>
+  <si>
+    <t>对于带有不完整标志数据的图块集，是否显示错误消息？
+禁用它并不能解决问题。</t>
+  </si>
+  <si>
     <t>Bounce Tile Settings  弹跳地砖设置</t>
   </si>
   <si>
@@ -1951,9 +2003,6 @@
   </si>
   <si>
     <t>启用</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
   <si>
     <t>Skill1</t>
@@ -2291,8 +2340,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="32">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2347,15 +2404,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="9"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2849,137 +2913,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2987,63 +3051,66 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3394,26 +3461,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="14.625" customWidth="1"/>
-    <col min="2" max="2" width="79" customWidth="1"/>
+    <col min="2" max="2" width="144.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="40.5" spans="1:2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3463,7 +3530,7 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3478,12 +3545,12 @@
       </c>
     </row>
     <row r="16" ht="27" spans="2:2">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3493,7 +3560,7 @@
       </c>
     </row>
     <row r="20" ht="40.5" spans="2:2">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3513,13 +3580,48 @@
       </c>
     </row>
     <row r="24" ht="27" spans="2:2">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="27" ht="20.25" spans="1:1">
+      <c r="A27" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" ht="40.5" spans="2:2">
+      <c r="B28" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" ht="40.5" spans="2:2">
+      <c r="B30" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" ht="40.5" spans="2:2">
+      <c r="B33" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" ht="27" spans="2:2">
+      <c r="B35" s="22" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3533,8 +3635,8 @@
   <sheetPr/>
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:C74"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3545,715 +3647,715 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>22</v>
+      <c r="A1" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" ht="46" customHeight="1" spans="1:3">
-      <c r="A2" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="A2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" ht="37.5" spans="1:3">
-      <c r="A3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>25</v>
+      <c r="A3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" ht="37.5" spans="1:3">
-      <c r="A4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>28</v>
+      <c r="A4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:3">
       <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:3">
       <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" ht="40.5" spans="1:3">
       <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" ht="40.5" spans="1:3">
+      <c r="A8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" ht="27" spans="1:3">
+      <c r="A9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" ht="18.75" spans="1:1">
+      <c r="A11" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" ht="21" customHeight="1" spans="1:3">
+      <c r="A12" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+    </row>
+    <row r="13" ht="37.5" spans="1:3">
+      <c r="A13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="14" ht="37.5" spans="1:3">
+      <c r="A14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="8" ht="40.5" spans="1:3">
-      <c r="A8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" ht="27" spans="1:3">
-      <c r="A9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" ht="18.75" spans="1:1">
-      <c r="A11" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" ht="21" customHeight="1" spans="1:3">
-      <c r="A12" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-    </row>
-    <row r="13" ht="37.5" spans="1:3">
-      <c r="A13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" ht="37.5" spans="1:3">
-      <c r="A14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" ht="27" spans="1:3">
       <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>48</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" ht="27" spans="1:3">
       <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="1:3">
       <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="C17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" ht="40.5" spans="1:3">
+      <c r="A18" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" ht="27" spans="1:3">
+      <c r="A19" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" ht="18.75" spans="1:1">
+      <c r="A21" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" ht="33" customHeight="1" spans="1:3">
+      <c r="A22" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+    </row>
+    <row r="23" ht="27" spans="1:3">
+      <c r="A23" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" ht="27" spans="1:3">
+      <c r="A24" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="18" ht="40.5" spans="1:3">
-      <c r="A18" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" ht="27" spans="1:3">
-      <c r="A19" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" ht="18.75" spans="1:1">
-      <c r="A21" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" ht="33" customHeight="1" spans="1:3">
-      <c r="A22" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-    </row>
-    <row r="23" ht="27" spans="1:3">
-      <c r="A23" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" ht="27" spans="1:3">
-      <c r="A24" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:3">
       <c r="A25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:3">
       <c r="A26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" ht="40.5" spans="1:3">
       <c r="A27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" ht="39" spans="1:3">
       <c r="A28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>68</v>
+        <v>74</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" ht="40.5" spans="1:3">
-      <c r="A29" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>70</v>
+      <c r="A29" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" ht="27" spans="1:3">
-      <c r="A30" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>72</v>
+      <c r="A30" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" ht="18.75" spans="1:1">
-      <c r="A32" s="2" t="s">
-        <v>73</v>
+      <c r="A32" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="33" ht="61" customHeight="1" spans="1:3">
-      <c r="A33" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
+      <c r="A33" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
     </row>
     <row r="34" ht="27" spans="1:3">
-      <c r="A34" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>76</v>
+      <c r="A34" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" ht="27" spans="1:3">
-      <c r="A35" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>78</v>
+      <c r="A35" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" ht="37.5" spans="1:3">
-      <c r="A36" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>80</v>
+      <c r="A36" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" ht="27" spans="1:3">
       <c r="A37" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>82</v>
+        <v>88</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" ht="27" spans="1:3">
       <c r="A38" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>84</v>
+        <v>90</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" ht="40.5" spans="1:3">
       <c r="A39" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>85</v>
+        <v>90</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="C39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" ht="40.5" spans="1:3">
+      <c r="A40" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" ht="27" spans="1:3">
+      <c r="A41" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" ht="18.75" spans="1:1">
+      <c r="A43" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" s="13" customFormat="1" ht="34" customHeight="1" spans="1:3">
+      <c r="A44" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+    </row>
+    <row r="45" ht="27" spans="1:3">
+      <c r="A45" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" ht="27" spans="1:3">
+      <c r="A46" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="40" ht="40.5" spans="1:3">
-      <c r="A40" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" ht="27" spans="1:3">
-      <c r="A41" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" ht="18.75" spans="1:1">
-      <c r="A43" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" s="14" customFormat="1" ht="34" customHeight="1" spans="1:3">
-      <c r="A44" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-    </row>
-    <row r="45" ht="27" spans="1:3">
-      <c r="A45" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" ht="27" spans="1:3">
-      <c r="A46" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="47" ht="27" spans="1:3">
       <c r="A47" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>97</v>
+        <v>103</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" ht="27" spans="1:3">
       <c r="A48" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>99</v>
+        <v>105</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" ht="40.5" spans="1:3">
       <c r="A49" t="s">
-        <v>98</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>100</v>
+        <v>105</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="C49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" ht="40.5" spans="1:3">
+      <c r="A50" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" ht="27" spans="1:3">
+      <c r="A51" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" ht="18.75" spans="1:1">
+      <c r="A53" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" ht="29" customHeight="1" spans="1:3">
+      <c r="A54" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+    </row>
+    <row r="55" ht="27" spans="1:3">
+      <c r="A55" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" ht="27" spans="1:3">
+      <c r="A56" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="50" ht="40.5" spans="1:3">
-      <c r="A50" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C50" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" ht="27" spans="1:3">
-      <c r="A51" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" ht="18.75" spans="1:1">
-      <c r="A53" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" ht="29" customHeight="1" spans="1:3">
-      <c r="A54" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-    </row>
-    <row r="55" ht="27" spans="1:3">
-      <c r="A55" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" ht="27" spans="1:3">
-      <c r="A56" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C56" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="57" ht="27" spans="1:3">
       <c r="A57" t="s">
-        <v>111</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>112</v>
+        <v>118</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" ht="27" spans="1:3">
       <c r="A58" t="s">
-        <v>113</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>114</v>
+        <v>120</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" ht="40.5" spans="1:3">
       <c r="A59" t="s">
-        <v>98</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>115</v>
+        <v>105</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="C59" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" ht="40.5" spans="1:3">
+      <c r="A60" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" ht="27" spans="1:3">
+      <c r="A61" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" ht="18.75" spans="1:1">
+      <c r="A63" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" s="16" customFormat="1" ht="47" customHeight="1" spans="1:3">
+      <c r="A64" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+    </row>
+    <row r="65" ht="27" spans="1:3">
+      <c r="A65" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" ht="27" spans="1:3">
+      <c r="A66" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="60" ht="40.5" spans="1:3">
-      <c r="A60" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C60" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61" ht="27" spans="1:3">
-      <c r="A61" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C61" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="63" ht="18.75" spans="1:1">
-      <c r="A63" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="64" s="15" customFormat="1" ht="47" customHeight="1" spans="1:3">
-      <c r="A64" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-    </row>
-    <row r="65" ht="27" spans="1:3">
-      <c r="A65" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C65" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" ht="27" spans="1:3">
-      <c r="A66" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C66" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="67" ht="27" spans="1:3">
       <c r="A67" t="s">
-        <v>126</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>127</v>
+        <v>133</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="C67" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" ht="27" spans="1:3">
       <c r="A68" t="s">
-        <v>128</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="C68" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" ht="40.5" spans="1:3">
       <c r="A69" t="s">
-        <v>128</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>130</v>
+        <v>135</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="C69" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" ht="40.5" spans="1:3">
-      <c r="A70" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>132</v>
+      <c r="A70" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" ht="27" spans="1:3">
-      <c r="A71" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>134</v>
+      <c r="A71" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" ht="18.75" spans="1:1">
-      <c r="A73" s="2" t="s">
-        <v>135</v>
+      <c r="A73" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="74" ht="61" customHeight="1" spans="1:3">
-      <c r="A74" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
+      <c r="A74" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
     </row>
     <row r="75" ht="27" spans="1:3">
       <c r="A75" t="s">
-        <v>137</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>138</v>
+        <v>144</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" ht="27" spans="1:3">
       <c r="A76" t="s">
-        <v>139</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>140</v>
+        <v>146</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="C76" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" ht="40.5" spans="1:3">
       <c r="A77" t="s">
-        <v>141</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>142</v>
+        <v>148</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="C77" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" ht="40.5" spans="1:3">
-      <c r="A78" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>144</v>
+      <c r="A78" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>151</v>
       </c>
       <c r="C78" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" ht="27" spans="1:3">
-      <c r="A79" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>146</v>
+      <c r="A79" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -4280,7 +4382,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -4290,80 +4392,80 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>147</v>
+      <c r="A1" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="2" ht="25.5" spans="1:2">
-      <c r="A2" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>149</v>
+      <c r="A2" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="3" ht="25.5" spans="1:2">
-      <c r="A3" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>151</v>
+      <c r="A3" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:2">
-      <c r="A4" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>153</v>
+      <c r="A4" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:2">
-      <c r="A5" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>155</v>
+      <c r="A5" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="6" ht="25.5" spans="1:2">
-      <c r="A6" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>157</v>
+      <c r="A6" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="7" ht="25.5" spans="1:2">
-      <c r="A7" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>159</v>
+      <c r="A7" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="8" ht="25.5" spans="1:2">
-      <c r="A8" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>161</v>
+      <c r="A8" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="12"/>
+      <c r="A9" s="14"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="12"/>
+      <c r="A10" s="14"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="12"/>
+      <c r="A11" s="14"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="12"/>
+      <c r="A12" s="14"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="12"/>
+      <c r="A13" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4375,10 +4477,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E161"/>
+  <dimension ref="A1:E165"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E140" sqref="E140"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4390,101 +4492,67 @@
     <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:5">
+    <row r="1" ht="40.5" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" t="s">
         <v>169</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
-      <c r="B5" t="s">
+    <row r="3" ht="27" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C3" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" spans="1:5">
+      <c r="A5" s="4" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" t="s">
+      <c r="E5" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="6" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" t="s">
         <v>181</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4496,9 +4564,9 @@
         <v>185</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E9" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4510,9 +4578,9 @@
         <v>188</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E10" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4524,9 +4592,9 @@
         <v>191</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E11" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4538,1515 +4606,1571 @@
         <v>194</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
         <v>196</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="7" t="s">
+      <c r="C13" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="14" spans="2:4">
+      <c r="D13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
+        <v>182</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" hidden="1" spans="1:5">
-      <c r="A16" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" hidden="1" spans="1:3">
-      <c r="A17" s="7" t="s">
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
         <v>205</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7" t="s">
+      <c r="C16" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="18" hidden="1" spans="2:4">
-      <c r="B18" s="9" t="s">
+      <c r="D16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>207</v>
       </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>210</v>
+      </c>
       <c r="C18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" hidden="1" spans="1:5">
+      <c r="A20" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" hidden="1" spans="1:3">
+      <c r="A21" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" hidden="1" spans="2:4">
+      <c r="B22" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" ht="40.5" hidden="1" spans="2:4">
+      <c r="B23" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C23" t="s">
+        <v>223</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" ht="18.75" spans="1:1">
+      <c r="A25" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" t="s">
+        <v>229</v>
+      </c>
+      <c r="C29" t="s">
+        <v>230</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" t="s">
+        <v>233</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C31" t="s">
+        <v>236</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="B32" s="10"/>
+      <c r="C32" s="9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="19" ht="40.5" hidden="1" spans="2:4">
-      <c r="B19" s="9" t="s">
+    <row r="33" spans="2:4">
+      <c r="B33" t="s">
         <v>210</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C33" t="s">
         <v>211</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D33" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="21" ht="18.75" spans="1:1">
-      <c r="A21" s="2" t="s">
+    <row r="34" spans="2:4">
+      <c r="B34" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="9" t="s">
+      <c r="C34" t="s">
         <v>214</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D34" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>238</v>
+      </c>
+      <c r="C35" t="s">
+        <v>239</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>241</v>
+      </c>
+      <c r="C36" t="s">
+        <v>242</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37" hidden="1" spans="1:5">
+      <c r="A37" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="B37" s="7"/>
+      <c r="C37" s="6" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" t="s">
-        <v>217</v>
-      </c>
-      <c r="C25" t="s">
-        <v>218</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="D37" s="8"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" hidden="1" spans="1:3">
+      <c r="A38" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" hidden="1" spans="2:4">
+      <c r="B39" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C39" t="s">
+        <v>247</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" hidden="1" spans="2:4">
+      <c r="B40" s="11" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" t="s">
+      <c r="C40" t="s">
         <v>220</v>
       </c>
-      <c r="C26" t="s">
-        <v>221</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="D40" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" ht="40.5" hidden="1" spans="2:4">
+      <c r="B41" s="11" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" t="s">
+      <c r="C41" t="s">
         <v>223</v>
       </c>
-      <c r="C27" t="s">
-        <v>224</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" t="s">
-        <v>198</v>
-      </c>
-      <c r="C29" t="s">
-        <v>199</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" t="s">
-        <v>201</v>
-      </c>
-      <c r="C30" t="s">
-        <v>202</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>226</v>
-      </c>
-      <c r="C31" t="s">
-        <v>227</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>229</v>
-      </c>
-      <c r="C32" t="s">
-        <v>230</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="33" hidden="1" spans="1:5">
-      <c r="A33" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" hidden="1" spans="1:3">
-      <c r="A34" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="35" hidden="1" spans="2:4">
-      <c r="B35" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C35" t="s">
-        <v>235</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="36" hidden="1" spans="2:4">
-      <c r="B36" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D41" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" ht="18.75" spans="1:1">
+      <c r="A43" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" t="s">
+        <v>251</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="37" ht="40.5" hidden="1" spans="2:4">
-      <c r="B37" s="9" t="s">
+      <c r="B46" s="10"/>
+      <c r="C46" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" t="s">
         <v>210</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C47" t="s">
         <v>211</v>
       </c>
-      <c r="D37" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="39" ht="18.75" spans="1:1">
-      <c r="A39" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>166</v>
-      </c>
-      <c r="C41" t="s">
-        <v>240</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" t="s">
-        <v>198</v>
-      </c>
-      <c r="C43" t="s">
-        <v>199</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" t="s">
-        <v>201</v>
-      </c>
-      <c r="C44" t="s">
-        <v>202</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" t="s">
-        <v>242</v>
-      </c>
-      <c r="C45" t="s">
-        <v>243</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>244</v>
-      </c>
-      <c r="C46" t="s">
-        <v>245</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="5"/>
+      <c r="D47" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="C48" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>236</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C49" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" t="s">
-        <v>254</v>
-      </c>
-      <c r="C50" s="11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
         <v>255</v>
       </c>
+      <c r="C50" t="s">
+        <v>256</v>
+      </c>
       <c r="D50" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="51" hidden="1" spans="1:5">
-      <c r="A51" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="4" t="s">
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="5"/>
-    </row>
-    <row r="52" hidden="1" spans="1:4">
-      <c r="A52" t="s">
+      <c r="B51" s="7"/>
+      <c r="C51" s="6" t="s">
         <v>259</v>
       </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" t="s">
+        <v>260</v>
+      </c>
       <c r="C52" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="53" hidden="1" spans="1:4">
-      <c r="A53" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" t="s">
         <v>262</v>
       </c>
       <c r="C53" t="s">
         <v>263</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54" hidden="1" spans="1:4">
-      <c r="A54" t="s">
         <v>264</v>
       </c>
-      <c r="C54" t="s">
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" t="s">
         <v>265</v>
       </c>
+      <c r="C54" s="13" t="s">
+        <v>266</v>
+      </c>
       <c r="D54" s="1" t="s">
-        <v>200</v>
+        <v>267</v>
       </c>
     </row>
     <row r="55" hidden="1" spans="1:5">
-      <c r="A55" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="5"/>
-    </row>
-    <row r="56" hidden="1" spans="1:3">
-      <c r="A56" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="57" hidden="1" spans="2:4">
-      <c r="B57" s="9" t="s">
-        <v>234</v>
+      <c r="A55" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" hidden="1" spans="1:4">
+      <c r="A56" t="s">
+        <v>270</v>
+      </c>
+      <c r="C56" t="s">
+        <v>271</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="57" hidden="1" spans="1:4">
+      <c r="A57" t="s">
+        <v>273</v>
       </c>
       <c r="C57" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="58" hidden="1" spans="2:4">
-      <c r="B58" s="9" t="s">
-        <v>207</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" hidden="1" spans="1:4">
+      <c r="A58" t="s">
+        <v>275</v>
       </c>
       <c r="C58" t="s">
+        <v>276</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="59" hidden="1" spans="1:5">
+      <c r="A59" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" hidden="1" spans="1:3">
+      <c r="A60" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="61" hidden="1" spans="2:4">
+      <c r="B61" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C61" t="s">
+        <v>247</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" hidden="1" spans="2:4">
+      <c r="B62" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C62" t="s">
+        <v>220</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="63" ht="40.5" hidden="1" spans="2:4">
+      <c r="B63" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C63" t="s">
+        <v>223</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="64" hidden="1" spans="1:3">
+      <c r="A64" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="65" hidden="1" spans="2:4">
+      <c r="B65" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C65" t="s">
+        <v>220</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="66" ht="40.5" hidden="1" spans="2:4">
+      <c r="B66" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C66" t="s">
+        <v>223</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="68" ht="18.75" spans="1:1">
+      <c r="A68" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c r="C69" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>178</v>
+      </c>
+      <c r="C70" t="s">
+        <v>284</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="59" ht="40.5" hidden="1" spans="2:4">
-      <c r="B59" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C59" t="s">
-        <v>211</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="60" hidden="1" spans="1:3">
-      <c r="A60" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="61" hidden="1" spans="2:4">
-      <c r="B61" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C61" t="s">
-        <v>208</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="62" ht="40.5" hidden="1" spans="2:4">
-      <c r="B62" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C62" t="s">
-        <v>211</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="64" ht="18.75" spans="1:1">
-      <c r="A64" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
-        <v>166</v>
-      </c>
-      <c r="C66" t="s">
-        <v>273</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4">
-      <c r="B68" t="s">
-        <v>198</v>
-      </c>
-      <c r="C68" t="s">
-        <v>199</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4">
-      <c r="B69" t="s">
-        <v>201</v>
-      </c>
-      <c r="C69" t="s">
-        <v>202</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
-        <v>275</v>
-      </c>
-      <c r="C70" t="s">
-        <v>276</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D71" s="4"/>
-      <c r="E71" s="5"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="9" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="72" spans="2:4">
       <c r="B72" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="C72" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="2:4">
       <c r="B73" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="C73" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4">
-      <c r="B74" t="s">
-        <v>254</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>278</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>286</v>
+      </c>
+      <c r="C74" t="s">
+        <v>287</v>
       </c>
       <c r="D74" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c r="C75" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="7"/>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76" t="s">
+        <v>260</v>
+      </c>
+      <c r="C76" t="s">
+        <v>261</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77" t="s">
+        <v>262</v>
+      </c>
+      <c r="C77" t="s">
+        <v>263</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78" t="s">
+        <v>265</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="79" hidden="1" spans="1:5">
+      <c r="A79" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c r="C79" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+    </row>
+    <row r="80" hidden="1" spans="1:3">
+      <c r="A80" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="81" hidden="1" spans="2:4">
+      <c r="B81" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C81" t="s">
+        <v>220</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="82" ht="40.5" hidden="1" spans="2:4">
+      <c r="B82" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C82" t="s">
+        <v>223</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="83" hidden="1" spans="1:3">
+      <c r="A83" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="84" hidden="1" spans="2:4">
+      <c r="B84" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C84" t="s">
+        <v>220</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="85" ht="40.5" hidden="1" spans="2:4">
+      <c r="B85" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C85" t="s">
+        <v>223</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="87" ht="18.75" spans="1:1">
+      <c r="A87" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c r="C88" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89" t="s">
+        <v>296</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B90" s="10"/>
+      <c r="C90" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4">
+      <c r="B91" t="s">
+        <v>210</v>
+      </c>
+      <c r="C91" t="s">
+        <v>211</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92" t="s">
+        <v>213</v>
+      </c>
+      <c r="C92" t="s">
+        <v>214</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>298</v>
+      </c>
+      <c r="C93" t="s">
+        <v>299</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>238</v>
+      </c>
+      <c r="C94" t="s">
+        <v>301</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c r="C95" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D95" s="6"/>
+      <c r="E95" s="7"/>
+    </row>
+    <row r="96" customFormat="1" spans="2:4">
+      <c r="B96" t="s">
+        <v>260</v>
+      </c>
+      <c r="C96" t="s">
+        <v>261</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="97" customFormat="1" spans="2:4">
+      <c r="B97" t="s">
+        <v>262</v>
+      </c>
+      <c r="C97" t="s">
+        <v>263</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="98" customFormat="1" spans="2:4">
+      <c r="B98" t="s">
+        <v>265</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="99" customFormat="1" hidden="1" spans="1:5">
+      <c r="A99" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c r="C99" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+    </row>
+    <row r="100" hidden="1" spans="1:3">
+      <c r="A100" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="101" customFormat="1" hidden="1" spans="2:4">
+      <c r="B101" s="11" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="75" hidden="1" spans="1:5">
-      <c r="A75" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-    </row>
-    <row r="76" hidden="1" spans="1:3">
-      <c r="A76" s="7" t="s">
+      <c r="C101" t="s">
+        <v>247</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="102" customFormat="1" hidden="1" spans="2:4">
+      <c r="B102" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C102" t="s">
+        <v>220</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="103" ht="40.5" hidden="1" spans="2:4">
+      <c r="B103" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C103" t="s">
+        <v>223</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="104" customFormat="1" hidden="1" spans="1:4">
+      <c r="A104" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7" t="s">
+      <c r="B104" s="9"/>
+      <c r="C104" s="9" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="77" hidden="1" spans="2:4">
-      <c r="B77" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" customFormat="1" hidden="1" spans="2:4">
+      <c r="B105" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C105" t="s">
+        <v>220</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="106" ht="40.5" hidden="1" spans="2:4">
+      <c r="B106" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C106" t="s">
+        <v>223</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="108" ht="18.75" spans="1:1">
+      <c r="A108" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c r="C109" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>178</v>
+      </c>
+      <c r="C110" t="s">
+        <v>310</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="78" ht="40.5" hidden="1" spans="2:4">
-      <c r="B78" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C78" t="s">
-        <v>211</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="79" hidden="1" spans="1:3">
-      <c r="A79" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="80" hidden="1" spans="2:4">
-      <c r="B80" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C80" t="s">
-        <v>208</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="81" ht="40.5" hidden="1" spans="2:4">
-      <c r="B81" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C81" t="s">
-        <v>211</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="83" ht="18.75" spans="1:1">
-      <c r="A83" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>166</v>
-      </c>
-      <c r="C85" t="s">
-        <v>285</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B86" s="8"/>
-      <c r="C86" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4">
-      <c r="B87" t="s">
-        <v>198</v>
-      </c>
-      <c r="C87" t="s">
-        <v>199</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4">
-      <c r="B88" t="s">
-        <v>201</v>
-      </c>
-      <c r="C88" t="s">
-        <v>202</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" t="s">
-        <v>287</v>
-      </c>
-      <c r="C89" t="s">
-        <v>288</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" t="s">
-        <v>226</v>
-      </c>
-      <c r="C90" t="s">
-        <v>290</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B91" s="5"/>
-      <c r="C91" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D91" s="4"/>
-      <c r="E91" s="5"/>
-    </row>
-    <row r="92" customFormat="1" spans="2:4">
-      <c r="B92" t="s">
-        <v>249</v>
-      </c>
-      <c r="C92" t="s">
-        <v>250</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="93" customFormat="1" spans="2:4">
-      <c r="B93" t="s">
-        <v>251</v>
-      </c>
-      <c r="C93" t="s">
-        <v>252</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="94" customFormat="1" spans="2:4">
-      <c r="B94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="95" customFormat="1" hidden="1" spans="1:5">
-      <c r="A95" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B95" s="5"/>
-      <c r="C95" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-    </row>
-    <row r="96" hidden="1" spans="1:3">
-      <c r="A96" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="97" customFormat="1" hidden="1" spans="2:4">
-      <c r="B97" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C97" t="s">
-        <v>235</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="98" customFormat="1" hidden="1" spans="2:4">
-      <c r="B98" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C98" t="s">
-        <v>208</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="99" ht="40.5" hidden="1" spans="2:4">
-      <c r="B99" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C99" t="s">
-        <v>211</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="100" customFormat="1" hidden="1" spans="1:4">
-      <c r="A100" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D100" s="1"/>
-    </row>
-    <row r="101" customFormat="1" hidden="1" spans="2:4">
-      <c r="B101" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C101" t="s">
-        <v>208</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="102" ht="40.5" hidden="1" spans="2:4">
-      <c r="B102" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C102" t="s">
-        <v>211</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="104" ht="18.75" spans="1:1">
-      <c r="A104" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B105" s="5"/>
-      <c r="C105" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" t="s">
-        <v>166</v>
-      </c>
-      <c r="C106" t="s">
-        <v>299</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B107" s="8"/>
-      <c r="C107" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4">
-      <c r="B108" t="s">
-        <v>198</v>
-      </c>
-      <c r="C108" t="s">
-        <v>301</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4">
-      <c r="B109" t="s">
-        <v>201</v>
-      </c>
-      <c r="C109" t="s">
-        <v>202</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" t="s">
-        <v>302</v>
-      </c>
-      <c r="C110" t="s">
-        <v>303</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B111" s="5"/>
-      <c r="C111" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D111" s="4"/>
-      <c r="E111" s="5"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="9" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="112" spans="2:4">
       <c r="B112" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="C112" t="s">
-        <v>250</v>
+        <v>312</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
     </row>
     <row r="113" spans="2:4">
       <c r="B113" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="C113" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4">
-      <c r="B114" t="s">
-        <v>254</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>278</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>313</v>
+      </c>
+      <c r="C114" t="s">
+        <v>314</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="115" hidden="1" spans="1:5">
-      <c r="A115" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B115" s="5"/>
-      <c r="C115" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="D115" s="4"/>
-      <c r="E115" s="5"/>
-    </row>
-    <row r="116" customFormat="1" hidden="1" spans="1:4">
-      <c r="A116" t="s">
+      <c r="B115" s="7"/>
+      <c r="C115" s="6" t="s">
         <v>259</v>
       </c>
+      <c r="D115" s="6"/>
+      <c r="E115" s="7"/>
+    </row>
+    <row r="116" spans="2:4">
+      <c r="B116" t="s">
+        <v>260</v>
+      </c>
       <c r="C116" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="117" customFormat="1" hidden="1" spans="1:4">
-      <c r="A117" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4">
+      <c r="B117" t="s">
         <v>262</v>
       </c>
       <c r="C117" t="s">
         <v>263</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="118" customFormat="1" hidden="1" spans="1:4">
-      <c r="A118" t="s">
-        <v>264</v>
-      </c>
-      <c r="C118" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4">
+      <c r="B118" t="s">
         <v>265</v>
       </c>
+      <c r="C118" s="13" t="s">
+        <v>289</v>
+      </c>
       <c r="D118" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="119" customFormat="1" hidden="1" spans="1:5">
-      <c r="A119" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B119" s="5"/>
-      <c r="C119" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="119" hidden="1" spans="1:5">
+      <c r="A119" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c r="C119" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D119" s="6"/>
+      <c r="E119" s="7"/>
     </row>
     <row r="120" customFormat="1" hidden="1" spans="1:4">
-      <c r="A120" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B120" s="7"/>
-      <c r="C120" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D120" s="1"/>
-    </row>
-    <row r="121" customFormat="1" hidden="1" spans="2:4">
-      <c r="B121" s="9" t="s">
-        <v>207</v>
+      <c r="A120" t="s">
+        <v>270</v>
+      </c>
+      <c r="C120" t="s">
+        <v>271</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="121" customFormat="1" hidden="1" spans="1:4">
+      <c r="A121" t="s">
+        <v>273</v>
       </c>
       <c r="C121" t="s">
+        <v>274</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="122" customFormat="1" hidden="1" spans="1:4">
+      <c r="A122" t="s">
+        <v>275</v>
+      </c>
+      <c r="C122" t="s">
+        <v>276</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="123" customFormat="1" hidden="1" spans="1:5">
+      <c r="A123" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c r="C123" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+    </row>
+    <row r="124" customFormat="1" hidden="1" spans="1:4">
+      <c r="A124" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B124" s="9"/>
+      <c r="C124" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" customFormat="1" hidden="1" spans="2:4">
+      <c r="B125" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C125" t="s">
+        <v>220</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="126" customFormat="1" ht="40.5" hidden="1" spans="2:4">
+      <c r="B126" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C126" t="s">
+        <v>223</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="128" ht="18.75" spans="1:1">
+      <c r="A128" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c r="C129" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>178</v>
+      </c>
+      <c r="C130" t="s">
+        <v>319</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="122" customFormat="1" ht="40.5" hidden="1" spans="2:4">
-      <c r="B122" s="9" t="s">
+      <c r="B131" s="10"/>
+      <c r="C131" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="132" customFormat="1" spans="2:4">
+      <c r="B132" t="s">
         <v>210</v>
       </c>
-      <c r="C122" t="s">
-        <v>211</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="124" ht="18.75" spans="1:1">
-      <c r="A124" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B125" s="5"/>
-      <c r="C125" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" t="s">
-        <v>166</v>
-      </c>
-      <c r="C126" t="s">
-        <v>308</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B127" s="8"/>
-      <c r="C127" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="128" customFormat="1" spans="2:4">
-      <c r="B128" t="s">
-        <v>198</v>
-      </c>
-      <c r="C128" t="s">
-        <v>199</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="129" customFormat="1" spans="2:4">
-      <c r="B129" t="s">
-        <v>201</v>
-      </c>
-      <c r="C129" t="s">
-        <v>202</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="130" customFormat="1" spans="1:4">
-      <c r="A130" t="s">
-        <v>226</v>
-      </c>
-      <c r="C130" t="s">
-        <v>310</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="131" customFormat="1" spans="1:4">
-      <c r="A131" t="s">
-        <v>229</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="C132" t="s">
         <v>312</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="132" customFormat="1" hidden="1" spans="1:5">
-      <c r="A132" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B132" s="5"/>
-      <c r="C132" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
-    </row>
-    <row r="133" hidden="1" spans="1:3">
-      <c r="A133" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B133" s="7"/>
-      <c r="C133" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="134" customFormat="1" hidden="1" spans="2:4">
-      <c r="B134" s="9" t="s">
-        <v>234</v>
+      <c r="D132" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="133" customFormat="1" spans="2:4">
+      <c r="B133" t="s">
+        <v>213</v>
+      </c>
+      <c r="C133" t="s">
+        <v>214</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="134" customFormat="1" spans="1:4">
+      <c r="A134" t="s">
+        <v>238</v>
       </c>
       <c r="C134" t="s">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="135" customFormat="1" hidden="1" spans="2:4">
-      <c r="B135" s="9" t="s">
-        <v>207</v>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="135" customFormat="1" spans="1:4">
+      <c r="A135" t="s">
+        <v>241</v>
       </c>
       <c r="C135" t="s">
+        <v>323</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="136" customFormat="1" hidden="1" spans="1:5">
+      <c r="A136" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c r="C136" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+    </row>
+    <row r="137" hidden="1" spans="1:3">
+      <c r="A137" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B137" s="9"/>
+      <c r="C137" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="138" customFormat="1" hidden="1" spans="2:4">
+      <c r="B138" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C138" t="s">
+        <v>247</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="139" customFormat="1" hidden="1" spans="2:4">
+      <c r="B139" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C139" t="s">
+        <v>220</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="140" customFormat="1" ht="40.5" hidden="1" spans="2:4">
+      <c r="B140" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C140" t="s">
+        <v>223</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="142" ht="18.75" spans="1:1">
+      <c r="A142" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B143" s="7"/>
+      <c r="C143" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="136" customFormat="1" ht="40.5" hidden="1" spans="2:4">
-      <c r="B136" s="9" t="s">
+      <c r="B144" s="10"/>
+      <c r="C144" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="145" customFormat="1" spans="2:4">
+      <c r="B145" t="s">
         <v>210</v>
       </c>
-      <c r="C136" t="s">
-        <v>211</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="138" ht="18.75" spans="1:1">
-      <c r="A138" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B139" s="5"/>
-      <c r="C139" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B140" s="8"/>
-      <c r="C140" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="141" customFormat="1" spans="2:4">
-      <c r="B141" t="s">
-        <v>198</v>
-      </c>
-      <c r="C141" t="s">
-        <v>199</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="142" customFormat="1" spans="2:4">
-      <c r="B142" t="s">
-        <v>201</v>
-      </c>
-      <c r="C142" t="s">
-        <v>202</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" t="s">
-        <v>316</v>
-      </c>
-      <c r="C143" t="s">
-        <v>317</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" t="s">
-        <v>319</v>
-      </c>
-      <c r="C144" t="s">
-        <v>320</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" t="s">
-        <v>321</v>
-      </c>
       <c r="C145" t="s">
+        <v>312</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="146" customFormat="1" spans="2:4">
+      <c r="B146" t="s">
+        <v>213</v>
+      </c>
+      <c r="C146" t="s">
+        <v>214</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>327</v>
+      </c>
+      <c r="C147" t="s">
+        <v>328</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>330</v>
+      </c>
+      <c r="C148" t="s">
+        <v>331</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>332</v>
+      </c>
+      <c r="C149" t="s">
+        <v>333</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>238</v>
+      </c>
+      <c r="C150" t="s">
+        <v>335</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" t="s">
-        <v>226</v>
-      </c>
-      <c r="C146" t="s">
-        <v>324</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="4" t="s">
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B151" s="7"/>
+      <c r="C151" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D151" s="6"/>
+      <c r="E151" s="7"/>
+    </row>
+    <row r="152" customFormat="1" spans="2:4">
+      <c r="B152" t="s">
+        <v>260</v>
+      </c>
+      <c r="C152" t="s">
+        <v>261</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="153" customFormat="1" spans="2:4">
+      <c r="B153" t="s">
+        <v>262</v>
+      </c>
+      <c r="C153" t="s">
+        <v>263</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="154" customFormat="1" spans="2:4">
+      <c r="B154" t="s">
+        <v>265</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="155" hidden="1" spans="1:5">
+      <c r="A155" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B155" s="7"/>
+      <c r="C155" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+    </row>
+    <row r="156" hidden="1" spans="1:3">
+      <c r="A156" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B156" s="9"/>
+      <c r="C156" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="157" hidden="1" spans="2:4">
+      <c r="B157" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C157" t="s">
         <v>247</v>
       </c>
-      <c r="B147" s="5"/>
-      <c r="C147" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D147" s="4"/>
-      <c r="E147" s="5"/>
-    </row>
-    <row r="148" customFormat="1" spans="2:4">
-      <c r="B148" t="s">
-        <v>249</v>
-      </c>
-      <c r="C148" t="s">
-        <v>250</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="149" customFormat="1" spans="2:4">
-      <c r="B149" t="s">
-        <v>251</v>
-      </c>
-      <c r="C149" t="s">
-        <v>252</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="150" customFormat="1" spans="2:4">
-      <c r="B150" t="s">
-        <v>254</v>
-      </c>
-      <c r="C150" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="151" hidden="1" spans="1:5">
-      <c r="A151" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B151" s="5"/>
-      <c r="C151" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
-    </row>
-    <row r="152" hidden="1" spans="1:3">
-      <c r="A152" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B152" s="7"/>
-      <c r="C152" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="153" hidden="1" spans="2:4">
-      <c r="B153" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C153" t="s">
-        <v>235</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="154" hidden="1" spans="2:4">
-      <c r="B154" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C154" t="s">
-        <v>208</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="155" ht="40.5" hidden="1" spans="2:4">
-      <c r="B155" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C155" t="s">
-        <v>211</v>
-      </c>
-      <c r="D155" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="156" hidden="1" spans="1:3">
-      <c r="A156" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="B156" s="7"/>
-      <c r="C156" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="157" customFormat="1" hidden="1" spans="2:4">
-      <c r="B157" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C157" t="s">
-        <v>208</v>
-      </c>
       <c r="D157" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="158" customFormat="1" ht="40.5" hidden="1" spans="2:4">
-      <c r="B158" s="9" t="s">
-        <v>210</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="158" hidden="1" spans="2:4">
+      <c r="B158" s="11" t="s">
+        <v>219</v>
       </c>
       <c r="C158" t="s">
-        <v>211</v>
-      </c>
-      <c r="D158" s="10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="159" hidden="1" spans="1:3">
-      <c r="A159" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B159" s="7"/>
-      <c r="C159" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="160" hidden="1" spans="2:4">
-      <c r="B160" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C160" t="s">
-        <v>208</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="161" ht="40.5" hidden="1" spans="2:4">
-      <c r="B161" s="9" t="s">
-        <v>210</v>
+        <v>220</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="159" ht="40.5" hidden="1" spans="2:4">
+      <c r="B159" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C159" t="s">
+        <v>223</v>
+      </c>
+      <c r="D159" s="12" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="160" hidden="1" spans="1:3">
+      <c r="A160" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B160" s="9"/>
+      <c r="C160" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="161" customFormat="1" hidden="1" spans="2:4">
+      <c r="B161" s="11" t="s">
+        <v>219</v>
       </c>
       <c r="C161" t="s">
-        <v>211</v>
-      </c>
-      <c r="D161" s="10" t="s">
-        <v>283</v>
+        <v>220</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="162" customFormat="1" ht="40.5" hidden="1" spans="2:4">
+      <c r="B162" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C162" t="s">
+        <v>223</v>
+      </c>
+      <c r="D162" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="163" hidden="1" spans="1:3">
+      <c r="A163" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B163" s="9"/>
+      <c r="C163" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="164" hidden="1" spans="2:4">
+      <c r="B164" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C164" t="s">
+        <v>220</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="165" ht="40.5" hidden="1" spans="2:4">
+      <c r="B165" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C165" t="s">
+        <v>223</v>
+      </c>
+      <c r="D165" s="12" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
